--- a/outputs/PATTAYA3.xlsx
+++ b/outputs/PATTAYA3.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Abi is motivated to attend the conference and will likely want to know where other attendees are staying as part of her travel arrangements. This information is relevant to her comprehensive information-gathering process, ensuring she has all the necessary details for her trip.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to attend the conference and make travel arrangements, which includes knowing where people are staying. This information is crucial for her to plan her accommodation and ensure she is in a convenient location relative to the conference venue. Additionally, Abi's comprehensive information processing style means she would consider gathering all relevant details, including accommodation options, as a necessary step in her planning process.</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page has clear categories under the "Attending" section, which includes options such as "Venue: Fairmont The Queen Elizabeth Hotel" and "Accommodation." These categories provide a logical next step for Abi to find information about where people are staying. Abi's comprehensive information processing style will lead her to click on the "Attending" section to gather more detailed information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Attending" section is clearly visible and logically placed under the main navigation menu. Abi, being motivated to gather information about the conference, would likely recognize that this section could contain relevant details about accommodation. Additionally, her comprehensive information processing style would lead her to explore this section to find the necessary information about where people are staying.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy, Learning Style
-Why: After clicking on "Attending," Abi lands on a page with a dropdown menu showing various options like "Venue: Fairmont The Queen Elizabeth Hotel," "Accommodation," etc. While these options are relevant, they do not immediately provide detailed information about where people are staying. Abi will need to click further into these options to find specific details. Given Abi's low confidence in doing unfamiliar computing tasks and her need for comprehensive information, the lack of immediate detailed information and the need for further navigation might make her feel unsure if she is making progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Attending," Abi will see a dropdown menu with several relevant options, including "Accommodation." This clearly indicates that she is on the right track to finding information about where people are staying. The presence of specific options related to her subgoal will reassure her that she is making progress toward her goal. Additionally, the comprehensive list of options aligns with her information processing style, allowing her to gather all necessary details systematically.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The dropdown menu under the "Attending" section clearly lists "Accommodation" as an option. This aligns with Abi's goal of finding out where people are staying. Given that the option is explicitly named and listed in a logical location, Abi will know what to do at this step and feel confident taking this action. This fits her process-oriented learning style and comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Accommodation" option is clearly listed in the dropdown menu under "Attending." Abi, who is motivated to find out where people are staying, will recognize that clicking on "Accommodation" is the logical next step. The clear labeling and organization of the menu align with her comprehensive information processing style, making it easy for her to understand what to do next and proceed with confidence.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After clicking on "Accommodation," Abi lands on a page that provides comprehensive details about the conference hotel, including the venue name, address, amenities, and options for hotel registration. This aligns with Abi's need for detailed information to make travel arrangements. The page content is clear and directly related to her goal of finding out where people are staying, confirming that she is making progress toward her goal. Additionally, the detailed explanations and options fit her process-oriented learning style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its name, location, amenities, and reasons to stay there. This aligns with her motivation to find out where people are staying and her comprehensive information processing style. The page also includes contact information for hotel reservations and a link to ConferenceShare for room-sharing options, ensuring that Abi has all the necessary details to make informed travel arrangements.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page already provides a good amount of relevant information about the conference accommodation. Abi, being thorough in her information processing, will likely scroll down to ensure she has all the available details. The page layout is clear and encourages further exploration, making it intuitive for Abi to scroll down for more information. Scrolling aligns with her comprehensive information gathering style.</t>
+Facets: 2. Information Processing Style
+Why: The page is well-organized and provides a clear overview of the accommodation details. Abi, with her comprehensive information processing style, will naturally scroll down to ensure she has all the necessary information. The content is structured in a way that encourages further exploration, and the presence of detailed sections about hotel registration, reasons to stay at the conference hotel, and contact information will guide her to scroll down for more details.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page Abi lands on after scrolling already provides detailed information about the conference accommodation, including the venue details, hotel registration process, reasons to stay at the conference hotel, and the hotel’s address. This comprehensive information aligns with Abi's need for thorough details and confirms that she is making progress toward her goal of knowing where people are staying. The clear and detailed content will make Abi feel confident that she has done the right thing and obtained all the necessary information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling, Abi will find detailed information about the conference hotel, including its amenities, reasons to stay there, and contact details for reservations. This comprehensive information aligns with her motivation to know where people are staying and her information processing style, which involves gathering all relevant details. The page provides all the necessary information in a clear and organized manner, ensuring that Abi knows she is making progress toward her goal and has all the details she needs to make her travel arrangements.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Abi is making travel arrangements to attend the conference, and determining the number of days to stay is a critical part of her planning process. This is a necessary step to ensure she can book her accommodation and make other travel arrangements accordingly. Given Abi's comprehensive information processing style, she would naturally consider the duration of her stay as an essential part of her overall use case.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to attend the conference and make comprehensive travel arrangements, which includes determining how many days to stay. This is a crucial part of her planning process to ensure she can attend all relevant sessions and events. Her comprehensive information processing style means she would consider the duration of her stay as an essential step in her overall travel planning. This subgoal aligns with her need to gather all necessary details to make informed decisions about her trip.</t>
         </is>
       </c>
     </row>
@@ -497,17 +497,17 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Program" option is clearly visible in the menu bar at the top of the page. Given Abi’s comprehensive approach to information gathering, she will likely recognize that clicking on "Program" will provide her with the conference schedule, which is crucial for determining how many days she should stay. The page layout is clear, and the "Program" option is logically placed, making it easy for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" option is clearly visible in the main navigation menu. Abi, who is motivated to determine how many days to stay at the conference, will recognize that the program section will provide details about the schedule of events and sessions. This aligns with her comprehensive information processing style, as she will understand that reviewing the program is a necessary step to plan the duration of her stay effectively. The page layout and navigation make it clear and straightforward for her to take this action.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy, Learning Style
-Why: After clicking on "Program," Abi lands on a page with a dropdown menu that includes multiple options like "Complete Program," "Week Overview," "Industry Program," etc. Although these options are relevant, they do not immediately provide detailed information about the duration of the conference. Abi will need to click further into these options to find specific details. Given Abi's low confidence in doing unfamiliar computing tasks and her need for comprehensive information, the lack of immediate detailed information and the need for further navigation might make her feel unsure if she is making progress toward her goal. The page does not directly confirm that she is on the right path or provide all the necessary information in one place.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Program," Abi will see a dropdown menu with various options related to the conference schedule, such as "Complete Program," "Week Overview," and "Filter by Day." These options clearly indicate that she is on the right track to finding detailed information about the conference schedule. This aligns with her motivation to determine how many days to stay and her comprehensive information processing style, as she can explore these options to gather all necessary details about the conference events and sessions. The clear and organized presentation of options reassures her that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Week Overview" option is clearly labeled in the dropdown menu under "Program." For Abi, who is looking to determine how many days to stay at the conference, this option is logically the next step. The label "Week Overview" intuitively suggests that it will provide an overview of the conference schedule for the entire week, which aligns with Abi's need to gather comprehensive information. The page layout and clear labeling make it straightforward for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program." Abi, who is motivated to determine how many days to stay at the conference, will recognize that clicking on "Week Overview" will provide her with a summary of the events and sessions throughout the week. This aligns with her comprehensive information processing style, as she will understand that reviewing the week overview is a necessary step to plan the duration of her stay effectively. The page layout and navigation make it clear and straightforward for her to take this action.</t>
         </is>
       </c>
     </row>
@@ -524,26 +524,26 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After clicking on "Week Overview," Abi lands on a page that provides a detailed schedule for the entire conference week. This includes co-located events, workshops, mentoring events, and the main conference sessions. The visual layout and comprehensive information will help Abi clearly see the duration and structure of the conference. The detailed schedule aligns with Abi's comprehensive information processing style, enabling her to determine how many days to stay. This confirms that she did the right thing and is making progress toward her goal by getting all the necessary information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Week Overview," Abi lands on a page that provides a detailed schedule of the conference events, workshops, and sessions for each day. This comprehensive overview allows her to see the entire week's activities at a glance, helping her determine how many days she needs to stay to attend the sessions relevant to her. The clear and organized presentation of the schedule reassures her that she is making progress toward her goal and provides all the necessary information to plan her stay effectively.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style, Attitude Toward Risk
-Why: The page Abi is on already provides a comprehensive week overview, which should suffice for determining how many days to stay at the conference. The need to go back up the page and click on "Tracks" may not be immediately clear to Abi, as it is not explicitly suggested or necessary for achieving her current subgoal. Given Abi's low confidence in unfamiliar computing tasks and her preference for comprehensive information gathering, she may not feel confident about navigating away from a page that already appears to provide the necessary information. This action could introduce uncertainty and risk, which Abi tends to avoid.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Tracks" option is clearly visible in the main navigation menu at the top of the page. Abi, who is motivated to determine how many days to stay at the conference, will recognize that clicking on "Tracks" will provide her with detailed information about the different tracks and sessions available. This aligns with her comprehensive information processing style, as she will understand that reviewing the tracks is a necessary step to plan the duration of her stay effectively. The page layout and navigation make it clear and straightforward for her to take this action.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy, Attitude Toward Risk
-Why: After clicking on "Tracks," Abi lands on a dropdown menu that lists various tracks and co-hosted conferences. While this menu provides additional options, it does not immediately offer detailed information about the schedule or duration of these tracks and events. Abi will need to click further into these options to find specific details, which may introduce uncertainty and make her feel unsure if she is making progress toward her goal. Given Abi's low confidence in unfamiliar computing tasks and her need for comprehensive information, the lack of immediate detailed information and the need for further navigation might make her feel like she hasn't made the right choice, and she might not get all the information she needs in one place.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Tracks," Abi will see a dropdown menu with a comprehensive list of tracks and sessions available at the conference. This detailed list allows her to explore the specific tracks she is interested in and plan her stay accordingly. The clear and organized presentation of the tracks reassures her that she is making progress toward her goal and provides all the necessary information to determine how many days to stay at the conference. This aligns with her motivation to gather all relevant details and her comprehensive information processing style.</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA3.xlsx
+++ b/outputs/PATTAYA3.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is making travel arrangements and would logically want to know where other attendees are staying to make informed decisions about her own accommodation. This aligns with her motivation to attend the conference and her comprehensive information processing style, as she would want to gather all relevant information before making a decision.</t>
+Facets: 1. Motivations
+Why: Abi is making travel arrangements to attend ICSE 2019, and knowing where people are staying is a logical step in planning her trip. This information can help her decide on accommodations and logistics, aligning with her motivation to attend the conference.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Attending" section is clearly labeled and prominently displayed on the page. This aligns with Abi's comprehensive information processing style, as she would likely read through the options available to her. Additionally, the clear labeling helps mitigate any potential issues with her lower computer self-efficacy, making it straightforward for her to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Attending" section is clearly labeled and relevant to Abi's goal of finding out where people are staying. The page provides a logical starting point for her to gather information about accommodations, aligning with her motivation and comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on "Attending," Abi is presented with a dropdown menu with multiple options. While the options are relevant, there is no immediate indication that she has made progress toward her specific subgoal of knowing where people are staying. Abi would need to further explore options like "Accommodation" or "Venue: Fairmont The Queen Elizabeth Hotel," which requires additional steps and decisions. This could be overwhelming and confusing for her, given her comprehensive information processing style and lower computer self-efficacy. She might not feel confident that she is on the right track without more explicit guidance.</t>
+Why: After clicking "Attending," Abi sees a dropdown menu with various options, but it doesn't directly provide information about where people are staying. Abi might not feel confident that she is making progress toward her goal, as she needs to choose another option like "Accommodation" without clear guidance. This requires additional steps and decision-making, which may not align with her comprehensive information processing style and low computer self-efficacy.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Accommodation" option is clearly labeled in the dropdown menu under "Attending." This makes it straightforward for Abi to identify and select the appropriate option to find information about where people are staying. The clear labeling and organization of the menu align with her comprehensive information processing style and help mitigate any potential issues with her lower computer self-efficacy. She will likely feel confident that clicking on "Accommodation" is the right step toward achieving her subgoal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Accommodation" option is clearly listed under the "Attending" dropdown menu, which directly relates to Abi's goal of finding out where people are staying. This aligns with her motivation to gather relevant information for her travel arrangements and supports her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its name, location, amenities, and the advantages of staying there. This aligns with Abi's comprehensive information processing style, as the page offers a thorough overview of the accommodation options. Additionally, the information about the hotel and its benefits directly addresses her motivation to know where people are staying, making her feel confident that she is making progress toward her goal. The page is well-organized and provides all the necessary details, ensuring that Abi gets the information she needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its location and amenities. This directly addresses her subgoal of knowing where people are staying, confirming she is making progress toward her goal. The comprehensive information aligns with her motivation and information processing style.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page is well-organized and provides a clear overview of the accommodation details. Abi, with her comprehensive information processing style, would naturally scroll down to ensure she has all the relevant information. The page layout and content are conducive to scrolling, and the information is presented in a logical and accessible manner, making it easy for Abi to know what to do at this step.</t>
+Why: The page provides detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style supports her motivation to scroll and gather all necessary details about where people are staying.</t>
         </is>
       </c>
     </row>
@@ -479,17 +479,17 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After scrolling, Abi will find detailed information about the conference hotel, including its name, location, amenities, and the benefits of staying there. This comprehensive information aligns with her information processing style and directly addresses her motivation to know where people are staying. The page provides all the necessary details, ensuring that Abi knows she is making progress toward her goal and has the information she needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal of knowing where people are staying, and the comprehensive details align with her motivation and information processing style.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The subgoal of determining how many days to stay at the conference is related to planning the duration of her trip, which is a different aspect of travel arrangements compared to finding out where people are staying. The page shown focuses on accommodation details and does not provide information about the conference schedule or duration. Abi, with her comprehensive information processing style, would likely consider the conference schedule and events to determine the length of her stay, which is not addressed on this page. Therefore, she would not have thought of this as a step toward achieving the overall use case of making travel arrangements.</t>
+          <t>Answer: YES
+Facets: 1. Motivations
+Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi's motivation to attend ICSE 2019 includes planning her stay, which directly impacts her travel logistics and accommodation decisions.</t>
         </is>
       </c>
     </row>
@@ -497,17 +497,17 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Program" option is clearly visible in the navigation menu at the top of the page. Abi, with her comprehensive information processing style, would recognize that the program section is likely to contain the conference schedule and details about the events, which are essential for determining how many days to stay. The clear labeling and placement of the "Program" option make it straightforward for Abi to know what to do at this step, despite her lower computer self-efficacy. She would feel confident that clicking on "Program" is the right action to take to achieve her subgoal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style. The page provides a clear path to relevant information.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on "Program," Abi is presented with a dropdown menu containing multiple options such as "Complete Program," "Week Overview," "Industry Program," and more. While these options are relevant, the page does not immediately provide the detailed schedule information she needs to determine how many days to stay. Abi would need to further explore these options, which could be overwhelming and confusing given her comprehensive information processing style and lower computer self-efficacy. She might not feel confident that she is making progress toward her goal without more explicit guidance or a direct link to the full schedule.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Program," Abi sees a dropdown menu with options like "Complete Program" and specific dates. This provides a clear path to understanding the conference schedule, helping her decide how many days to stay. The information aligns with her motivation and comprehensive information processing style, confirming she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Week Overview" option is clearly labeled in the dropdown menu under "Program." Abi, with her comprehensive information processing style, would recognize that this option is likely to provide a summary of the conference schedule, which is essential for determining how many days to stay. The clear labeling and organization of the menu make it straightforward for Abi to know what to do at this step, despite her lower computer self-efficacy. She would feel confident that clicking on "Week Overview" is the right action to take to achieve her subgoal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program." It suggests a summary of the conference schedule, which is relevant to Abi's goal of determining how many days to stay. This aligns with her motivation and comprehensive information processing style, making it a logical step for her to take.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on "Week Overview," Abi lands on a page that provides a detailed schedule of the conference week, including co-located events, workshops, and main conference sessions. This comprehensive overview aligns with her information processing style, as it allows her to see the entire week's schedule at a glance. The clear and organized presentation of the schedule helps Abi determine how many days to stay at the conference, directly addressing her subgoal. She will know that she did the right thing and is making progress toward her goal, as the page provides all the necessary information she needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events for each day of the conference. This helps Abi determine how many days to stay, aligning with her motivation and comprehensive information processing style. The visual layout makes it easy for her to see the full scope of the conference, confirming she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Week Overview" page already provides a comprehensive schedule of the conference, which should help Abi determine how many days to stay. Clicking on "Tracks" might not be immediately clear to Abi as a necessary step for achieving her subgoal, especially since the current page already offers relevant information. Given her comprehensive information processing style, Abi might not feel confident that she needs to take additional steps without explicit guidance. Additionally, her lower computer self-efficacy might make her hesitant to navigate away from a page that already seems to provide the needed information.</t>
+Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
+Why: The page already provides a comprehensive overview of the conference schedule, which should help Abi determine how many days to stay. Clicking on "Tracks" might not be necessary, and without clear guidance, Abi might not feel confident that this action will provide additional useful information. This could lead to confusion, given her low computer self-efficacy and preference for comprehensive information.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on "Tracks," Abi is presented with a dropdown menu containing various track options. However, this page does not immediately provide the detailed schedule information she needs to determine how many days to stay. Abi would need to further explore these options, which could be overwhelming and confusing given her comprehensive information processing style and lower computer self-efficacy. She might not feel confident that she is making progress toward her goal without more explicit guidance or a direct link to the full schedule. The dropdown menu adds another layer of complexity, making it less clear that she is on the right track.</t>
+Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
+Why: After clicking on "Tracks," Abi sees a dropdown menu with many options, but it doesn't directly provide information about how many days to stay. The lack of clear guidance or direct information may leave her uncertain about her progress, given her low computer self-efficacy and need for comprehensive information.</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA3.xlsx
+++ b/outputs/PATTAYA3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is making travel arrangements to attend ICSE 2019, and knowing where people are staying is a logical step in planning her trip. This information can help her decide on accommodations and logistics, aligning with her motivation to attend the conference.</t>
+Why: Abi is attending the conference and would likely want to know where other attendees are staying to make her travel arrangements more convenient and possibly to network. This aligns with her motivation to attend the conference and make necessary travel plans.</t>
         </is>
       </c>
     </row>
@@ -435,16 +435,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and relevant to Abi's goal of finding out where people are staying. The page provides a logical starting point for her to gather information about accommodations, aligning with her motivation and comprehensive information processing style.</t>
+Why: The "Attending" section is clearly labeled and likely contains relevant information about accommodations and where people are staying. This aligns with Abi's motivation to make travel arrangements and her comprehensive information processing style, as she would look for relevant sections to gather necessary details.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking "Attending," Abi sees a dropdown menu with various options, but it doesn't directly provide information about where people are staying. Abi might not feel confident that she is making progress toward her goal, as she needs to choose another option like "Accommodation" without clear guidance. This requires additional steps and decision-making, which may not align with her comprehensive information processing style and low computer self-efficacy.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This indicates she is making progress toward her goal and provides a clear path to the information she needs.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly listed under the "Attending" dropdown menu, which directly relates to Abi's goal of finding out where people are staying. This aligns with her motivation to gather relevant information for her travel arrangements and supports her comprehensive information processing style.</t>
+Why: The "Accommodation" option is clearly listed under the "Attending" dropdown menu. This directly relates to Abi's goal of finding out where people are staying, making it intuitive for her to click on it. The page provides a straightforward path to the information she needs.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its location and amenities. This directly addresses her subgoal of knowing where people are staying, confirming she is making progress toward her goal. The comprehensive information aligns with her motivation and information processing style.</t>
+Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location and amenities. This confirms she is making progress toward her goal of finding out where people are staying and provides the comprehensive information she needs.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page provides detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style supports her motivation to scroll and gather all necessary details about where people are staying.</t>
+Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view more content. Abi's comprehensive information processing style means she will likely scroll to ensure she gathers all relevant details about where people are staying.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal of knowing where people are staying, and the comprehensive details align with her motivation and information processing style.</t>
+Facets: 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal and provides the comprehensive information she needs.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations
-Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi's motivation to attend ICSE 2019 includes planning her stay, which directly impacts her travel logistics and accommodation decisions.</t>
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi would consider this step essential to ensure she attends all relevant sessions and events, aligning with her motivation to attend the conference effectively.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style. The page provides a clear path to relevant information.</t>
+Why: The "Program" section is likely to contain the schedule of events, which is essential for Abi to determine how many days to stay. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style, as she would seek out detailed schedules to make informed decisions.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Program," Abi sees a dropdown menu with options like "Complete Program" and specific dates. This provides a clear path to understanding the conference schedule, helping her decide how many days to stay. The information aligns with her motivation and comprehensive information processing style, confirming she is making progress toward her goal.</t>
+Why: After clicking "Program," Abi sees options like "Complete Program" and specific dates, which are crucial for determining how many days to stay. This confirms she is making progress toward her goal and provides the detailed schedule information she needs.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program." It suggests a summary of the conference schedule, which is relevant to Abi's goal of determining how many days to stay. This aligns with her motivation and comprehensive information processing style, making it a logical step for her to take.</t>
+Why: The "Week Overview" option is clearly listed under the "Program" dropdown. It suggests a summary of the conference schedule, which is relevant for Abi to determine how many days to stay. This aligns with her motivation to plan effectively and her comprehensive approach to gathering information.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events for each day of the conference. This helps Abi determine how many days to stay, aligning with her motivation and comprehensive information processing style. The visual layout makes it easy for her to see the full scope of the conference, confirming she is making progress toward her goal.</t>
+Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she is making progress toward her goal and providing the comprehensive information she needs.</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: The page already provides a comprehensive overview of the conference schedule, which should help Abi determine how many days to stay. Clicking on "Tracks" might not be necessary, and without clear guidance, Abi might not feel confident that this action will provide additional useful information. This could lead to confusion, given her low computer self-efficacy and preference for comprehensive information.</t>
+Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
+Why: The "Tracks" option is not clearly related to determining how many days to stay. Without explicit information indicating that "Tracks" will provide additional relevant details, Abi might be hesitant to click due to her risk-averse nature and low confidence in unfamiliar tasks.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: After clicking on "Tracks," Abi sees a dropdown menu with many options, but it doesn't directly provide information about how many days to stay. The lack of clear guidance or direct information may leave her uncertain about her progress, given her low computer self-efficacy and need for comprehensive information.</t>
+Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
+Why: The "Tracks" dropdown provides a list of options, but it doesn't clearly indicate how it will help Abi determine how many days to stay. Without explicit guidance or relevant information, Abi may not feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA3.xlsx
+++ b/outputs/PATTAYA3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is attending the conference and would likely want to know where other attendees are staying to make her travel arrangements more convenient and possibly to network. This aligns with her motivation to attend the conference and make necessary travel plans.</t>
+Why: Abi is making travel arrangements to attend ICSE 2019, and knowing where people are staying is a logical step in planning her trip. This information can help her decide on accommodations and logistics, aligning with her motivation to attend the conference.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and likely contains relevant information about accommodations and where people are staying. This aligns with Abi's motivation to make travel arrangements and her comprehensive information processing style, as she would look for relevant sections to gather necessary details.</t>
+Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It likely contains information about accommodations, which aligns with her motivation to find out where people are staying. The page layout supports her comprehensive information processing style, making it straightforward for her to decide to click on "Attending."</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This indicates she is making progress toward her goal and provides a clear path to the information she needs.</t>
+Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This clear navigation confirms she is making progress toward her goal and provides the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly listed under the "Attending" dropdown menu. This directly relates to Abi's goal of finding out where people are staying, making it intuitive for her to click on it. The page provides a straightforward path to the information she needs.</t>
+Why: The "Accommodation" option is clearly listed in the dropdown menu under "Attending," which directly relates to Abi's goal of finding out where people are staying. This clear labeling and organization align with her motivations and information processing style, making it easy for her to know what to do next.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location and amenities. This confirms she is making progress toward her goal of finding out where people are staying and provides the comprehensive information she needs.</t>
+Why: After clicking on "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location and amenities. This directly addresses her goal of finding out where people are staying, confirming she is making progress. The comprehensive details align with her information processing style, providing all the necessary information she needs.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view more content. Abi's comprehensive information processing style means she will likely scroll to ensure she gathers all relevant details about where people are staying.</t>
+Why: The page contains detailed information about accommodations, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style supports her motivation to scroll and gather all necessary details about where people are staying.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal and provides the comprehensive information she needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodations, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal and provides her with all the necessary information she needs.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations
-Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi would consider this step essential to ensure she attends all relevant sessions and events, aligning with her motivation to attend the conference effectively.</t>
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi's motivation to attend ICSE 2019 includes planning her stay, so she would naturally consider this as a step toward achieving her overall goal.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" section is likely to contain the schedule of events, which is essential for Abi to determine how many days to stay. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style, as she would seek out detailed schedules to make informed decisions.</t>
+Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style, making it clear what to do next.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Program," Abi sees options like "Complete Program" and specific dates, which are crucial for determining how many days to stay. This confirms she is making progress toward her goal and provides the detailed schedule information she needs.</t>
+Why: After clicking on "Program," Abi sees a dropdown with options like "Complete Program" and specific dates. This confirms she is making progress toward determining how many days to stay, as it provides access to the schedule. The clear organization aligns with her motivations and information processing style, giving her the information she needs.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option is clearly listed under the "Program" dropdown. It suggests a summary of the conference schedule, which is relevant for Abi to determine how many days to stay. This aligns with her motivation to plan effectively and her comprehensive approach to gathering information.</t>
+Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program," which is relevant to Abi's goal of determining how many days to stay. This aligns with her motivation to plan her attendance and her comprehensive information processing style, making it clear what to do next.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she is making progress toward her goal and providing the comprehensive information she needs.</t>
+Why: The "Week Overview" page provides a clear schedule of events across the conference days, helping Abi determine how many days to stay. This aligns with her motivation to plan effectively and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
         <is>
           <t>Answer: NO
 Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
-Why: The "Tracks" option is not clearly related to determining how many days to stay. Without explicit information indicating that "Tracks" will provide additional relevant details, Abi might be hesitant to click due to her risk-averse nature and low confidence in unfamiliar tasks.</t>
+Why: The "Tracks" option is not clearly related to determining how many days to stay, and Abi might not feel confident about what information it will provide. Without clear guidance or indication that it will help her achieve her goal, she may hesitate to take this action.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
-Why: The "Tracks" dropdown provides a list of options, but it doesn't clearly indicate how it will help Abi determine how many days to stay. Without explicit guidance or relevant information, Abi may not feel confident that she is making progress toward her goal.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Tracks" dropdown provides a list of options, but it may not clearly indicate how it helps determine the number of days to stay. Without explicit guidance or a direct link to her goal, Abi might not feel confident that she is making progress or getting the necessary information.</t>
         </is>
       </c>
     </row>
